--- a/testSheet.xlsx
+++ b/testSheet.xlsx
@@ -12,18 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tiny; hamlet with 1d2 buildings remaining</t>
   </si>
   <si>
+    <t>1d2</t>
+  </si>
+  <si>
     <t>Small; village with 1d4+1 buildings remaining</t>
   </si>
   <si>
+    <t>1d4+1</t>
+  </si>
+  <si>
     <t>Medium; town with 1d6+2 buildings remaining</t>
   </si>
   <si>
+    <t>1d6+2</t>
+  </si>
+  <si>
     <t>Large; large town with 1d8+3 buildings remaining</t>
+  </si>
+  <si>
+    <t>1d8+3</t>
   </si>
   <si>
     <t>Religious, roll on Religious Ruins Table</t>
@@ -315,13 +327,19 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -329,7 +347,10 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -337,7 +358,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -360,7 +384,7 @@
         <v>1.0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -368,7 +392,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -376,7 +400,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -384,7 +408,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -392,7 +416,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -400,7 +424,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -408,7 +432,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -416,7 +440,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testSheet.xlsx
+++ b/testSheet.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Settlements" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Ruins" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Long Rambly Name" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tiny; hamlet with 1d2 buildings remaining</t>
   </si>
@@ -60,6 +61,42 @@
   </si>
   <si>
     <t>Location specific ruin, see Location Specfic Ruins table</t>
+  </si>
+  <si>
+    <t>eheh</t>
+  </si>
+  <si>
+    <t>5d6+4</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>2d8+1</t>
+  </si>
+  <si>
+    <t>svet</t>
+  </si>
+  <si>
+    <t>3d2</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>8d2+1</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>100d5+1</t>
+  </si>
+  <si>
+    <t>innit</t>
+  </si>
+  <si>
+    <t>4d10</t>
   </si>
 </sst>
 </file>
@@ -113,6 +150,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -446,4 +487,85 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>